--- a/static/uploads/mau/bangcong/mau_bangchamcong_hanhchinh_kx.xlsx
+++ b/static/uploads/mau/bangcong/mau_bangchamcong_hanhchinh_kx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DAT\Desktop\code\working\HRM\static\uploads\mau\bangcong\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388854E2-863E-425B-B273-8F7CB11FCD6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{907A0DA0-FB2E-4F21-A66F-A13C929F84F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0B459C31-F691-4EE8-A3E0-D773EEF2E69F}"/>
   </bookViews>
@@ -159,7 +159,7 @@
     <t>Chính thức</t>
   </si>
   <si>
-    <t>BẢNG CHẤM CÔNG HÀNH CHÍNH</t>
+    <t>BẢNG CHẤM CÔNG HÀNH CHÍNH NAM THUẬN</t>
   </si>
 </sst>
 </file>
@@ -565,8 +565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD673445-ADF1-4376-A26B-96CF6537E950}">
   <dimension ref="A1:AP3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AO6" sqref="AO6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:AP1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
